--- a/tesi_camilla/general/input_data/input_data.xlsx
+++ b/tesi_camilla/general/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation_int/input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/general/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA4BEF-6D82-964A-A323-9D3160190E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69779F2-33F9-2B4C-8754-9AF818B98F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="u" sheetId="1" r:id="rId1"/>
@@ -24451,7 +24451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -24822,7 +24824,7 @@
         <v>44</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -24839,7 +24841,7 @@
         <v>45</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -24856,7 +24858,7 @@
         <v>46</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -24873,7 +24875,7 @@
         <v>47</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -24890,7 +24892,7 @@
         <v>48</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -24907,7 +24909,7 @@
         <v>49</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -24924,7 +24926,7 @@
         <v>50</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -28271,7 +28273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -28557,7 +28559,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28629,7 +28631,7 @@
         <v>53</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
